--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1342028.878047885</v>
+        <v>-1320483.630851362</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16811344.3723657</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10409108.77718037</v>
+        <v>10437621.23151847</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>311.0607960067893</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.146903464567</v>
       </c>
       <c r="W2" t="n">
-        <v>70.76693653246295</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>42.97003333297386</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>19.96408116192059</v>
+        <v>111.3331601784397</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>135.6305424636196</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.5777380219343</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>62.77947698960589</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>35.0560030479866</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>422.2820169539668</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>127.90408679447</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>26.7016084775207</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>83.73328541484815</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.05924486566383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>103.345659457196</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790367</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>35.47248331510059</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.4707957071068</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>240.9739924675</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2138,13 +2138,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,16 +2482,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>43.70143389869422</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884122</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>272.4569561516774</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245973</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>776.0139224416828</v>
+        <v>496.9452215647967</v>
       </c>
       <c r="C2" t="n">
-        <v>776.0139224416828</v>
+        <v>496.9452215647967</v>
       </c>
       <c r="D2" t="n">
-        <v>461.8110981924006</v>
+        <v>465.0758407796453</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4331,49 +4331,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>945.2047502274744</v>
       </c>
       <c r="W2" t="n">
-        <v>1625.701676007222</v>
+        <v>540.3492956385077</v>
       </c>
       <c r="X2" t="n">
-        <v>1206.559212586533</v>
+        <v>496.9452215647967</v>
       </c>
       <c r="Y2" t="n">
-        <v>1202.313492926591</v>
+        <v>496.9452215647967</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4407,25 +4407,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>706.0679142203073</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C4" t="n">
-        <v>685.9021756729128</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,13 +4495,13 @@
         <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4516,22 +4516,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1397.332608038895</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>1125.306203625186</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X4" t="n">
-        <v>1125.306203625186</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y4" t="n">
-        <v>897.8865329392945</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1351.042333103999</v>
+        <v>976.0800361768188</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.940264327826</v>
+        <v>941.9779674006461</v>
       </c>
       <c r="D5" t="n">
-        <v>888.3585900650944</v>
+        <v>910.1085866154947</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>476.3338417737899</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>452.5068162234017</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1118.83735977707</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1118.83735977707</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1118.83735977707</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1118.83735977707</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1207.322704144141</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621627</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580222</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333279</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2555.449242333279</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2555.449242333279</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2555.449242333279</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>2230.623244331325</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.64927858873</v>
+        <v>1825.767789742358</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.547219208445</v>
+        <v>1810.665730362073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.301499548503</v>
+        <v>1402.379606661726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379583</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746007</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.7339798211539</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481076</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642692</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.8446370304531</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.17265800712318</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1034.204670450822</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325474</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773857</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104427</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996207</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385007</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.2559470001092</v>
+        <v>626.8656485534634</v>
       </c>
       <c r="C7" t="n">
-        <v>209.2559470001092</v>
+        <v>563.4520354326494</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2559470001092</v>
+        <v>397.5740426341721</v>
       </c>
       <c r="E7" t="n">
-        <v>209.2559470001092</v>
+        <v>227.8160388849094</v>
       </c>
       <c r="F7" t="n">
-        <v>209.2559470001092</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>51.10898484666558</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.8674394178012</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>744.0773211857621</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333279</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2534.031421038651</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2374.790052336647</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2128.910605915103</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1850.477605168208</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1563.522097038638</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1291.49569262493</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1046.103937958342</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.2559470001092</v>
+        <v>818.6842672724506</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1351.042333103999</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.940264327826</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>888.3585900650944</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1393.464329137293</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1392.64927858873</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.547219208445</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1373.301499548503</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>858.7506050139928</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>686.1888934972177</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>520.3109006987404</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5528969494776</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1567.987382813276</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.960978399567</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1050.56922373298</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y10" t="n">
-        <v>1050.56922373298</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2506.387139754336</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2068.244666937759</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797067</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029705</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618679</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991046</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157282</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>2341.808132766344</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M11" t="n">
-        <v>2341.808132766344</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N11" t="n">
-        <v>2341.808132766344</v>
+        <v>3219.389950875955</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517348</v>
+        <v>4199.569617446262</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350744</v>
+        <v>5027.879492279658</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309339</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309339</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309339</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3788.168860182378</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3788.168860182378</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3425.551910116204</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3425.551910116204</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3340.97283393959</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2932.686710239243</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066444</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728567</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.6607588231179</v>
+        <v>811.7546776883876</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0990473063429</v>
+        <v>639.1929661716125</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2210545078656</v>
+        <v>639.1929661716125</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4630507586029</v>
+        <v>469.4349624223498</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203591</v>
+        <v>292.7279083841059</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618679</v>
+        <v>292.7279083841059</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618679</v>
+        <v>152.8257340744805</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.315007648974</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.288603235266</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.899048227997</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.479377542105</v>
+        <v>1003.573296407375</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5276,37 +5276,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G16" t="n">
         <v>242.1630145804051</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.264168181403</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1476.872413514815</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N17" t="n">
-        <v>3137.402081918264</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O17" t="n">
-        <v>4117.581748488571</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5701,22 +5701,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5975,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,7 +6026,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2430.688170966518</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2008.945405562817</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1589.435328150138</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1172.060290721309</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>760.5925685433926</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>375.5944445795326</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>100.3853979616767</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881666</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="N32" t="n">
-        <v>3168.718933692368</v>
+        <v>2474.288037325479</v>
       </c>
       <c r="O32" t="n">
-        <v>4148.898600262674</v>
+        <v>3454.467703895786</v>
       </c>
       <c r="P32" t="n">
-        <v>4977.20847509607</v>
+        <v>4282.777578729181</v>
       </c>
       <c r="Q32" t="n">
-        <v>4977.20847509607</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>4998.430429440833</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>4914.77855562467</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4694.711328497709</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4435.489025814725</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4072.872075748552</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3668.016621159585</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3248.874157738896</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2840.588034038549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167517</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.593603563305</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902587</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064203</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881666</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>100.0048083046207</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>424.563133270833</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="L33" t="n">
-        <v>1648.327823655249</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="M33" t="n">
-        <v>1648.327823655249</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310565</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>908.0668132066662</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>758.588527821065</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>605.2302314846784</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>444.9228848593108</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>295.7313172980146</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>172.2288504012652</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881666</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>202.6216469888664</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.7366897986828</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2205.842236860929</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143403</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
         <v>97.56670367581786</v>
@@ -6938,25 +6938,25 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N35" t="n">
-        <v>2523.346856428596</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O35" t="n">
-        <v>3503.526522998903</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832299</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790893</v>
@@ -6977,7 +6977,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7011,28 +7011,28 @@
         <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K36" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
         <v>1643.633687060287</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936681</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.186622908067</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.82832657168</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463123</v>
       </c>
       <c r="G37" t="n">
         <v>293.3294123850158</v>
@@ -7120,25 +7120,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,22 +7181,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>4725.010467986771</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4725.010467986771</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4725.010467986771</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4725.010467986771</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7245,31 +7245,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7309,34 +7309,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7363,16 +7363,16 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7394,67 +7394,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>532.8213911287357</v>
+        <v>540.3167323207291</v>
       </c>
       <c r="L41" t="n">
-        <v>1607.881357381595</v>
+        <v>1615.376698573589</v>
       </c>
       <c r="M41" t="n">
-        <v>2764.929192592146</v>
+        <v>2772.424533784139</v>
       </c>
       <c r="N41" t="n">
-        <v>3890.660176028593</v>
+        <v>3898.155517220586</v>
       </c>
       <c r="O41" t="n">
-        <v>4870.8398425989</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
-        <v>4870.8398425989</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4870.8398425989</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7579,13 +7579,13 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
         <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7661,37 +7661,37 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
@@ -7825,31 +7825,31 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,16 +8143,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>386.2721222723219</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833199</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>89.37913572431398</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>638.8623105833199</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833198</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>22.45692843256279</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>143.8920278917535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827335</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>294.5649431828324</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>86.02274874679097</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,10 +9179,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>282.6337518573318</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,10 +9243,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>508.6956131767492</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.95402330576508</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>137.205594386779</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10431,7 +10431,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,28 +10586,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>81.9345526149732</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.571051709084713</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949895894</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10668,7 +10668,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>154.8734503071946</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.571051709084713</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>120.4898909705106</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>371.9810054535085</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.273083710220445e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>331.2177533716342</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>37.71410486740758</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.67467827192596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.67467827192567</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814180.098401838</v>
+        <v>679798.1630957759</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>887357.0549948516</v>
+        <v>902760.2388257824</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>887357.0549948516</v>
+        <v>904817.1578755858</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774256.3794214386</v>
+        <v>923872.8072742998</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923872.8072742999</v>
+        <v>923872.8072743001</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923872.8072742999</v>
+        <v>923872.8072743001</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938504.1410853637</v>
+        <v>936923.7283791441</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85695.00802604223</v>
+        <v>70763.68188092421</v>
       </c>
       <c r="C2" t="n">
         <v>93825.78098082151</v>
       </c>
       <c r="D2" t="n">
-        <v>93825.7809808215</v>
+        <v>93825.78098082148</v>
       </c>
       <c r="E2" t="n">
-        <v>77268.75107891866</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="F2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="G2" t="n">
-        <v>92200.07722403669</v>
+        <v>92200.07722403664</v>
       </c>
       <c r="H2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="I2" t="n">
-        <v>92200.07722403665</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="J2" t="n">
         <v>92200.07722403668</v>
@@ -26347,13 +26347,13 @@
         <v>93825.78098082148</v>
       </c>
       <c r="N2" t="n">
+        <v>93825.78098082145</v>
+      </c>
+      <c r="O2" t="n">
         <v>93825.78098082148</v>
       </c>
-      <c r="O2" t="n">
-        <v>93825.7809808215</v>
-      </c>
       <c r="P2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082145</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118371982</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101982</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725243</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471851</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197363</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>12988.56827099789</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978834</v>
+        <v>144718.1170387508</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.2002734118</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571709</v>
+        <v>136875.4802388639</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>178390.1777075793</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726671</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26445,16 +26445,16 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653861</v>
+        <v>103678.8250359888</v>
       </c>
       <c r="M4" t="n">
         <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
+        <v>107302.2988178705</v>
+      </c>
+      <c r="O4" t="n">
         <v>107302.2988178706</v>
-      </c>
-      <c r="O4" t="n">
-        <v>107302.2988178705</v>
       </c>
       <c r="P4" t="n">
         <v>107302.2988178706</v>
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346583</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710196</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77341.06245996882</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301495.4716280609</v>
+        <v>-268057.3457134419</v>
       </c>
       <c r="C6" t="n">
-        <v>-177692.1265936188</v>
+        <v>-226354.9563939434</v>
       </c>
       <c r="D6" t="n">
-        <v>-177692.1265936188</v>
+        <v>-163176.7279394813</v>
       </c>
       <c r="E6" t="n">
-        <v>-235677.1782579743</v>
+        <v>-262774.9395909411</v>
       </c>
       <c r="F6" t="n">
-        <v>-159535.5117352273</v>
+        <v>-80419.83036989134</v>
       </c>
       <c r="G6" t="n">
-        <v>-80396.60603050869</v>
+        <v>-80419.83036989135</v>
       </c>
       <c r="H6" t="n">
-        <v>-80396.6060305087</v>
+        <v>-80419.83036989135</v>
       </c>
       <c r="I6" t="n">
-        <v>-80396.60603050876</v>
+        <v>-80419.83036989138</v>
       </c>
       <c r="J6" t="n">
-        <v>-191411.0713754988</v>
+        <v>-191434.2957148815</v>
       </c>
       <c r="K6" t="n">
-        <v>-80396.60603050874</v>
+        <v>-135642.369261865</v>
       </c>
       <c r="L6" t="n">
-        <v>-98466.74829382321</v>
+        <v>-100182.6747861341</v>
       </c>
       <c r="M6" t="n">
-        <v>-218350.5539610223</v>
+        <v>-233710.2496018896</v>
       </c>
       <c r="N6" t="n">
-        <v>-156641.3328365506</v>
+        <v>-88992.1325631388</v>
       </c>
       <c r="O6" t="n">
-        <v>-88992.13256313873</v>
+        <v>-88992.13256313879</v>
       </c>
       <c r="P6" t="n">
-        <v>-88992.1325631388</v>
+        <v>-88992.13256313882</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="P2" t="n">
         <v>16.23571033874737</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.23571033874737</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.23571033874737</v>
-      </c>
-      <c r="O2" t="n">
-        <v>16.23571033874737</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833198</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827335</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360208</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632154</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453717</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072306</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574101</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632154</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702085</v>
+        <v>580.7214853644035</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574101</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632154</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453717</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072306</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574101</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>171.8438771009447</v>
       </c>
       <c r="W2" t="n">
-        <v>330.039963510614</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150.8720132396867</v>
+        <v>59.50293422316763</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>293.8064549296681</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>37.41304254357743</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>108.0566174120014</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>128.879359176444</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.154980439320923</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>212.8683581419007</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1818662538038</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>216.236228642401</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>13.78189685953851</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874583</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,16 +34863,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>386.2721222723219</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833199</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>89.37913572431398</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>638.8623105833199</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833198</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>22.45692843256279</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>143.8920278917535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827335</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>294.5649431828324</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>86.02274874679097</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>282.6337518573318</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>508.6956131767492</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.95402330576508</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>137.205594386779</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37151,7 +37151,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37233,7 +37233,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
@@ -37242,7 +37242,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
         <v>186.127402120901</v>
@@ -37306,28 +37306,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>81.9345526149732</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.571051709084713</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949895894</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327045</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>154.8734503071946</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37701,7 +37701,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348437</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
@@ -37713,7 +37713,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37792,7 +37792,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.571051709084713</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37947,16 +37947,16 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,16 +38029,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38175,7 +38175,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
